--- a/lab_organization/bacterial_stocks_Hendry_2024oct30.xlsx
+++ b/lab_organization/bacterial_stocks_Hendry_2024oct30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/lab_organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5E3144-25DE-7841-BFC4-E66AFB28FD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D6887E-570D-A444-B79A-E63C70DC2885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="0" windowWidth="26440" windowHeight="18000" activeTab="1" xr2:uid="{46E2711B-3907-E641-996B-8A68437A57BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="504">
   <si>
     <t>Primer</t>
   </si>
@@ -1556,6 +1556,12 @@
   </si>
   <si>
     <t>Clor (30 ug/ml) , Amp (25 ug/ml), Vanc (2 ug/ml)</t>
+  </si>
+  <si>
+    <t>104 tube mislabled as 83, possibly contaminated</t>
+  </si>
+  <si>
+    <t>105 tube mislabled as 84, possibly contaminated</t>
   </si>
 </sst>
 </file>
@@ -2407,10 +2413,10 @@
   <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D191" sqref="D191"/>
+      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3773,7 +3779,9 @@
       <c r="G48" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="23"/>
+      <c r="H48" s="23" t="s">
+        <v>502</v>
+      </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="26">
@@ -3803,7 +3811,9 @@
       <c r="G49" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="23" t="s">
+        <v>503</v>
+      </c>
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
       <c r="K49" s="26">
@@ -7825,7 +7835,7 @@
       <c r="I201" s="23"/>
       <c r="J201" s="23"/>
       <c r="K201" s="39">
-        <v>45614</v>
+        <v>45979</v>
       </c>
       <c r="L201" s="23"/>
     </row>
@@ -7857,7 +7867,7 @@
       <c r="I202" s="23"/>
       <c r="J202" s="23"/>
       <c r="K202" s="39">
-        <v>45614</v>
+        <v>45979</v>
       </c>
       <c r="L202" s="23"/>
     </row>
@@ -7983,7 +7993,7 @@
       <c r="I207" s="23"/>
       <c r="J207" s="23"/>
       <c r="K207" s="39">
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="L207" s="23"/>
     </row>
@@ -8039,7 +8049,7 @@
       <c r="I209" s="23"/>
       <c r="J209" s="23"/>
       <c r="K209" s="39">
-        <v>45471</v>
+        <v>45836</v>
       </c>
       <c r="L209" s="23"/>
     </row>
@@ -8065,7 +8075,7 @@
       <c r="I210" s="23"/>
       <c r="J210" s="23"/>
       <c r="K210" s="39">
-        <v>45614</v>
+        <v>45979</v>
       </c>
       <c r="L210" s="23"/>
     </row>
@@ -8108,7 +8118,7 @@
     <sortCondition ref="A1:A997"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H211" r:id="rId1" xr:uid="{2743296D-068D-A347-AB7A-BB5A9CD7B1AE}"/>
+    <hyperlink ref="H211" r:id="rId1" xr:uid="{2486797F-10B6-7241-95D1-612FDECAE059}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
